--- a/Task.xlsx
+++ b/Task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="English1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Welcom To The Course</t>
   </si>
@@ -34,13 +34,55 @@
   </si>
   <si>
     <t>OOP</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Solutions and Projects</t>
+  </si>
+  <si>
+    <t>Language Syntax</t>
+  </si>
+  <si>
+    <t>Writing to Console</t>
+  </si>
+  <si>
+    <t>C# Fundamentals</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Boolean Data Type</t>
+  </si>
+  <si>
+    <t>Char Data Type</t>
+  </si>
+  <si>
+    <t>String Data Type(2)</t>
+  </si>
+  <si>
+    <t>String Data Type(1)</t>
+  </si>
+  <si>
+    <t>Numeric Data Types</t>
+  </si>
+  <si>
+    <t>Verbs AND PRONOUNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERBS </t>
+  </si>
+  <si>
+    <t>NOUNS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,8 +97,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,6 +133,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -85,17 +160,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -374,9 +455,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -384,12 +467,24 @@
     <col min="2" max="2" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -429,19 +524,80 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -449,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="English1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Welcom To The Course</t>
   </si>
@@ -76,6 +76,27 @@
   </si>
   <si>
     <t>NOUNS</t>
+  </si>
+  <si>
+    <t>Arithmetic Operators</t>
+  </si>
+  <si>
+    <t>Operator Precedence</t>
+  </si>
+  <si>
+    <t>Assignment Operators</t>
+  </si>
+  <si>
+    <t>Increment &amp; Decrement Operators</t>
+  </si>
+  <si>
+    <t>الأحطاء واقتناصها</t>
+  </si>
+  <si>
+    <t>ADJECTIVES</t>
+  </si>
+  <si>
+    <t>Comparison Operators</t>
   </si>
 </sst>
 </file>
@@ -455,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,18 +494,23 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +550,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,6 +619,36 @@
     <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="English1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Welcom To The Course</t>
   </si>
@@ -97,6 +97,60 @@
   </si>
   <si>
     <t>Comparison Operators</t>
+  </si>
+  <si>
+    <t>تحليل وتحويل النصوص</t>
+  </si>
+  <si>
+    <t>Control Flow / If Statement</t>
+  </si>
+  <si>
+    <t>Debugger Basics</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>For Loop</t>
+  </si>
+  <si>
+    <t>Ternary Operator</t>
+  </si>
+  <si>
+    <t>Foreach Loop</t>
+  </si>
+  <si>
+    <t> For &amp; Foreach Training</t>
+  </si>
+  <si>
+    <t>Do &amp; While Loops</t>
+  </si>
+  <si>
+    <t>Switch Statement</t>
+  </si>
+  <si>
+    <t>Methods </t>
+  </si>
+  <si>
+    <t>Methods - Part 2</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Array Findings</t>
+  </si>
+  <si>
+    <t>Training: Palindrome Words</t>
+  </si>
+  <si>
+    <t> Value Types &amp; Reference Types</t>
+  </si>
+  <si>
+    <t>PRESENT SIMPLE</t>
+  </si>
+  <si>
+    <t>PRESENT SIMPLE||</t>
   </si>
 </sst>
 </file>
@@ -476,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,6 +565,16 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -550,10 +614,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,6 +713,86 @@
     <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="English1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Welcom To The Course</t>
   </si>
@@ -151,13 +151,121 @@
   </si>
   <si>
     <t>PRESENT SIMPLE||</t>
+  </si>
+  <si>
+    <t>08 [DAILY ROUTINE I]‏</t>
+  </si>
+  <si>
+    <t>09 [DAILY ROUTINE II]‏</t>
+  </si>
+  <si>
+    <t>10 [PRESENT PROGRESSIVE]‏</t>
+  </si>
+  <si>
+    <t>11 [PRESENT SIMPLE AND PRESENT PROGRESSIVE]‏</t>
+  </si>
+  <si>
+    <t>12 [PAST SIMPLE]‏</t>
+  </si>
+  <si>
+    <t>13 [PAST PROGRESSIVE]‏</t>
+  </si>
+  <si>
+    <t>14 [REVIEW AND PREPOSITIONS</t>
+  </si>
+  <si>
+    <t>15 [FUTURE SIMPLE]‏</t>
+  </si>
+  <si>
+    <t>16 [MAKE AND DO - COLLOCATIONS]‏</t>
+  </si>
+  <si>
+    <t>17 [USING “THE” COLLOCATIONS]‏</t>
+  </si>
+  <si>
+    <t>18 [PRONOUNS]‏</t>
+  </si>
+  <si>
+    <t>19 [MODAL VERBS I]‏</t>
+  </si>
+  <si>
+    <t>20 [MODAL VERBS II]‏</t>
+  </si>
+  <si>
+    <t>21 [PAST PERFECT SIMPLE]‏</t>
+  </si>
+  <si>
+    <t>22 [VOCABULARY AND STORIES I]‏</t>
+  </si>
+  <si>
+    <t>23 [VOCABULARY AND STORIES II]‏</t>
+  </si>
+  <si>
+    <t>24 [VOCABULARY AND STORIES III]‏</t>
+  </si>
+  <si>
+    <t>25 [VOCABULARY AND STORIES IIII]‏</t>
+  </si>
+  <si>
+    <t>26 [VOCABULARY AND STORIES V]‏</t>
+  </si>
+  <si>
+    <t>27 [VOCABULARY AND STORIES VI]</t>
+  </si>
+  <si>
+    <t>28 [IF - ZERO CONDITIONAL FIRST CONDITIONAL]‏</t>
+  </si>
+  <si>
+    <t>29 [PASSIVE]‏</t>
+  </si>
+  <si>
+    <t>30 PRONUNCIATION PRACTICE‏</t>
+  </si>
+  <si>
+    <t>31 INDIRECT SPEECH‏</t>
+  </si>
+  <si>
+    <t>32 CONJUNCTIONS‏</t>
+  </si>
+  <si>
+    <t>34 present perfect simple‏</t>
+  </si>
+  <si>
+    <t>Summary‏</t>
+  </si>
+  <si>
+    <t>sql and</t>
+  </si>
+  <si>
+    <t>sql or</t>
+  </si>
+  <si>
+    <t>sql not</t>
+  </si>
+  <si>
+    <t>sql insert</t>
+  </si>
+  <si>
+    <t>sql order by</t>
+  </si>
+  <si>
+    <t>sql where</t>
+  </si>
+  <si>
+    <t>sql select</t>
+  </si>
+  <si>
+    <t>sql update</t>
+  </si>
+  <si>
+    <t>sql delete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +295,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -239,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -249,6 +363,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -530,15 +651,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="50.44140625" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -577,17 +698,163 @@
         <v>42</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,6 +873,78 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="8">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="9">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="9">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="9">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="9">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="9">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="9">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="9">
+        <v>45540</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -616,7 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="English1" sheetId="1" r:id="rId1"/>
-    <sheet name="SQL2" sheetId="2" r:id="rId2"/>
+    <sheet name="SQL" sheetId="2" r:id="rId2"/>
     <sheet name="C#" sheetId="3" r:id="rId3"/>
     <sheet name="LINQ3" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
   <si>
     <t>Welcom To The Course</t>
   </si>
@@ -259,13 +259,22 @@
   </si>
   <si>
     <t>sql delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Date </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Review on English</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Review on C# Fundamentals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,8 +311,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +355,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -353,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -369,6 +397,18 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -651,94 +691,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" customWidth="1"/>
+    <col min="3" max="3" width="45.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="13">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="13">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="13">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="13">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="13">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="13">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>51</v>
       </c>
@@ -854,7 +945,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,173 +1044,289 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="2" max="3" width="47.44140625" customWidth="1"/>
+    <col min="4" max="4" width="36.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="11">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="11">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="11">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="11">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="11">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="11">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="11">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="11">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="11">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="11">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="11">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="11">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="11">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="11">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>38</v>
       </c>

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="English1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
   <si>
     <t>Welcom To The Course</t>
   </si>
@@ -268,13 +268,58 @@
   </si>
   <si>
     <t xml:space="preserve"> Review on C# Fundamentals</t>
+  </si>
+  <si>
+    <t> Type Casting</t>
+  </si>
+  <si>
+    <t> String Formatting</t>
+  </si>
+  <si>
+    <t>String Split &amp; Join</t>
+  </si>
+  <si>
+    <t>StringBuilder</t>
+  </si>
+  <si>
+    <t>sql NULL</t>
+  </si>
+  <si>
+    <t>sql FUNCTIONS</t>
+  </si>
+  <si>
+    <t>SQL LIKE</t>
+  </si>
+  <si>
+    <t>SQL WILDCARDS</t>
+  </si>
+  <si>
+    <t>SQL IN</t>
+  </si>
+  <si>
+    <t>SQL BETWEEN</t>
+  </si>
+  <si>
+    <t>SQL ALIAS</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+  </si>
+  <si>
+    <t>Compilation Process</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,13 +358,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,6 +424,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -365,6 +442,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -377,42 +460,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="6" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -691,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,231 +806,249 @@
     <col min="5" max="5" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11"/>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="A8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="11"/>
       <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="8">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="17">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -942,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,84 +1074,148 @@
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="8">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="14">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="9">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="8">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="9">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="8">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="9">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="8">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="9">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="8">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="9">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="8">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="9">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="8">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="9">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="8">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="9">
-        <v>45540</v>
+      <c r="B11" s="8">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="8">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="8">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="8">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="8">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="8">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="8">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="8">
+        <v>45570</v>
       </c>
     </row>
   </sheetData>
@@ -1044,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,287 +1240,453 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="12">
         <v>45540</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="12">
+        <v>45570</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="12">
+        <v>45570</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="12">
+        <v>45570</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="12">
+        <v>45570</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="12">
+        <v>45570</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="12">
+        <v>45570</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="12">
+        <v>45570</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="12">
+        <v>45570</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="12">
+        <v>45570</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="12">
+        <v>45570</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="12">
+        <v>45570</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="12">
+        <v>45570</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="12">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="12">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>40</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="12">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="12">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="12">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="12">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="12">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="12">
+        <v>45570</v>
       </c>
     </row>
   </sheetData>
@@ -1362,7 +1710,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
+      <c r="A1" s="3"/>
       <c r="B1" s="2"/>
     </row>
   </sheetData>

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="English1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
   <si>
     <t>Welcom To The Course</t>
   </si>
@@ -313,6 +313,30 @@
   </si>
   <si>
     <t>Compilation Process</t>
+  </si>
+  <si>
+    <t>Classes &amp; Objects</t>
+  </si>
+  <si>
+    <t>Constructor</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>Namespaces</t>
+  </si>
+  <si>
+    <t>Access Modifiers</t>
+  </si>
+  <si>
+    <t> Constants &amp; Read-Only Variables</t>
+  </si>
+  <si>
+    <t>Variable Scopes</t>
+  </si>
+  <si>
+    <t>SQL JOIN</t>
   </si>
 </sst>
 </file>
@@ -466,7 +490,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -486,17 +510,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="6" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -507,6 +521,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -794,20 +826,20 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50.44140625" customWidth="1"/>
-    <col min="2" max="2" width="34.21875" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" style="16" customWidth="1"/>
     <col min="3" max="3" width="45.5546875" customWidth="1"/>
     <col min="4" max="4" width="30.109375" customWidth="1"/>
     <col min="5" max="5" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -824,11 +856,11 @@
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -836,11 +868,11 @@
       <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -848,11 +880,11 @@
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -860,11 +892,11 @@
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -872,11 +904,11 @@
       <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -884,11 +916,11 @@
       <c r="A7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -896,11 +928,11 @@
       <c r="A8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -909,12 +941,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="8">
-        <v>45422</v>
+        <v>45570</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="10" t="s">
         <v>44</v>
+      </c>
+      <c r="B10" s="8">
+        <v>45631</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1033,7 +1068,7 @@
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17">
+      <c r="A34" s="13">
         <v>33</v>
       </c>
     </row>
@@ -1043,7 +1078,7 @@
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
     </row>
@@ -1060,25 +1095,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="20" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1086,7 +1121,7 @@
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1094,7 +1129,7 @@
       <c r="A3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="19">
         <v>45540</v>
       </c>
     </row>
@@ -1102,7 +1137,7 @@
       <c r="A4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="19">
         <v>45540</v>
       </c>
     </row>
@@ -1110,7 +1145,7 @@
       <c r="A5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="19">
         <v>45540</v>
       </c>
     </row>
@@ -1118,7 +1153,7 @@
       <c r="A6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="19">
         <v>45540</v>
       </c>
     </row>
@@ -1126,7 +1161,7 @@
       <c r="A7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="19">
         <v>45540</v>
       </c>
     </row>
@@ -1134,7 +1169,7 @@
       <c r="A8" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="19">
         <v>45540</v>
       </c>
     </row>
@@ -1142,7 +1177,7 @@
       <c r="A9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="19">
         <v>45540</v>
       </c>
     </row>
@@ -1150,7 +1185,7 @@
       <c r="A10" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="19">
         <v>45540</v>
       </c>
     </row>
@@ -1158,7 +1193,7 @@
       <c r="A11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="19">
         <v>45540</v>
       </c>
     </row>
@@ -1166,7 +1201,7 @@
       <c r="A12" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="19">
         <v>45570</v>
       </c>
     </row>
@@ -1174,7 +1209,7 @@
       <c r="A13" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="19">
         <v>45570</v>
       </c>
     </row>
@@ -1182,7 +1217,7 @@
       <c r="A14" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="19">
         <v>45570</v>
       </c>
     </row>
@@ -1190,7 +1225,7 @@
       <c r="A15" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="19">
         <v>45570</v>
       </c>
     </row>
@@ -1198,7 +1233,7 @@
       <c r="A16" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="19">
         <v>45570</v>
       </c>
     </row>
@@ -1206,7 +1241,7 @@
       <c r="A17" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="19">
         <v>45570</v>
       </c>
     </row>
@@ -1214,8 +1249,16 @@
       <c r="A18" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="8">
-        <v>45570</v>
+      <c r="B18" s="19">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="19">
+        <v>45631</v>
       </c>
     </row>
   </sheetData>
@@ -1226,16 +1269,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="3" width="47.44140625" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="47.44140625" customWidth="1"/>
     <col min="4" max="4" width="36.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1257,11 +1301,11 @@
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -1269,11 +1313,11 @@
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -1281,11 +1325,11 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -1293,11 +1337,11 @@
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -1305,11 +1349,11 @@
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -1317,11 +1361,11 @@
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -1329,11 +1373,11 @@
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -1341,11 +1385,11 @@
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -1353,11 +1397,11 @@
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -1365,11 +1409,11 @@
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -1377,11 +1421,11 @@
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -1389,11 +1433,11 @@
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -1401,11 +1445,11 @@
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -1413,11 +1457,11 @@
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -1425,11 +1469,11 @@
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -1437,11 +1481,11 @@
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -1449,11 +1493,11 @@
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -1461,11 +1505,11 @@
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>45540</v>
       </c>
     </row>
@@ -1473,11 +1517,11 @@
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>45570</v>
       </c>
     </row>
@@ -1485,11 +1529,11 @@
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>45570</v>
       </c>
     </row>
@@ -1497,11 +1541,11 @@
       <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>45570</v>
       </c>
     </row>
@@ -1509,11 +1553,11 @@
       <c r="A23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>45570</v>
       </c>
     </row>
@@ -1521,11 +1565,11 @@
       <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>45570</v>
       </c>
     </row>
@@ -1533,11 +1577,11 @@
       <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>45570</v>
       </c>
     </row>
@@ -1545,11 +1589,11 @@
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <v>45570</v>
       </c>
     </row>
@@ -1557,11 +1601,11 @@
       <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <v>45570</v>
       </c>
     </row>
@@ -1569,11 +1613,11 @@
       <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <v>45570</v>
       </c>
     </row>
@@ -1581,11 +1625,11 @@
       <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <v>45570</v>
       </c>
     </row>
@@ -1593,11 +1637,11 @@
       <c r="A30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="11">
         <v>45570</v>
       </c>
     </row>
@@ -1605,11 +1649,11 @@
       <c r="A31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="11">
         <v>45570</v>
       </c>
     </row>
@@ -1617,11 +1661,11 @@
       <c r="A32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="11"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="11">
         <v>45570</v>
       </c>
     </row>
@@ -1629,11 +1673,11 @@
       <c r="A33" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="11">
         <v>45570</v>
       </c>
     </row>
@@ -1641,11 +1685,11 @@
       <c r="A34" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="11">
         <v>45570</v>
       </c>
     </row>
@@ -1653,7 +1697,7 @@
       <c r="A35" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <v>45570</v>
       </c>
     </row>
@@ -1661,7 +1705,7 @@
       <c r="A36" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <v>45570</v>
       </c>
     </row>
@@ -1669,7 +1713,7 @@
       <c r="A37" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <v>45570</v>
       </c>
     </row>
@@ -1677,7 +1721,7 @@
       <c r="A38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="11">
         <v>45570</v>
       </c>
     </row>
@@ -1685,8 +1729,64 @@
       <c r="A39" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="12">
-        <v>45570</v>
+      <c r="B39" s="11">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="11">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="11">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="11">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="11">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="11">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="11">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="11">
+        <v>45631</v>
       </c>
     </row>
   </sheetData>

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="111">
   <si>
     <t>Welcom To The Course</t>
   </si>
@@ -337,13 +337,31 @@
   </si>
   <si>
     <t>SQL JOIN</t>
+  </si>
+  <si>
+    <t>13-5-2024</t>
+  </si>
+  <si>
+    <t>ref &amp; out Keywords</t>
+  </si>
+  <si>
+    <t>Exceptions</t>
+  </si>
+  <si>
+    <t>Enums</t>
+  </si>
+  <si>
+    <t>Flags Enums</t>
+  </si>
+  <si>
+    <t>SQL GROUP By</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +413,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -402,8 +421,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <u/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -490,7 +516,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -503,9 +529,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -513,13 +536,10 @@
     <xf numFmtId="14" fontId="6" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
@@ -528,17 +548,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -826,26 +853,26 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50.44140625" customWidth="1"/>
-    <col min="2" max="2" width="34.21875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" style="14" customWidth="1"/>
     <col min="3" max="3" width="45.5546875" customWidth="1"/>
     <col min="4" max="4" width="30.109375" customWidth="1"/>
     <col min="5" max="5" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>80</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -853,108 +880,111 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>45540</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>45540</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>45540</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>45540</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>45540</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>45540</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>45540</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="10">
         <v>45570</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="10">
         <v>45631</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>45</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1068,7 +1098,7 @@
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13">
+      <c r="A34" s="11">
         <v>33</v>
       </c>
     </row>
@@ -1078,7 +1108,7 @@
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
+      <c r="A36" s="11">
         <v>35</v>
       </c>
     </row>
@@ -1095,30 +1125,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="20" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="15" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -1126,7 +1156,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="19">
@@ -1134,7 +1164,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="17" t="s">
         <v>75</v>
       </c>
       <c r="B4" s="19">
@@ -1142,7 +1172,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="17" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="19">
@@ -1150,7 +1180,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="17" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="19">
@@ -1158,7 +1188,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="17" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="19">
@@ -1166,7 +1196,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="17" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="19">
@@ -1174,7 +1204,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="17" t="s">
         <v>73</v>
       </c>
       <c r="B9" s="19">
@@ -1182,7 +1212,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B10" s="19">
@@ -1190,7 +1220,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="17" t="s">
         <v>78</v>
       </c>
       <c r="B11" s="19">
@@ -1198,7 +1228,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B12" s="19">
@@ -1206,7 +1236,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="17" t="s">
         <v>87</v>
       </c>
       <c r="B13" s="19">
@@ -1214,7 +1244,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="17" t="s">
         <v>88</v>
       </c>
       <c r="B14" s="19">
@@ -1222,7 +1252,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B15" s="19">
@@ -1230,7 +1260,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="17" t="s">
         <v>90</v>
       </c>
       <c r="B16" s="19">
@@ -1238,7 +1268,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="17" t="s">
         <v>91</v>
       </c>
       <c r="B17" s="19">
@@ -1246,7 +1276,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="17" t="s">
         <v>92</v>
       </c>
       <c r="B18" s="19">
@@ -1254,11 +1284,19 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="17" t="s">
         <v>104</v>
       </c>
       <c r="B19" s="19">
         <v>45631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1269,16 +1307,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="B48" sqref="B48:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="47.44140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" style="14" customWidth="1"/>
     <col min="3" max="3" width="47.44140625" customWidth="1"/>
     <col min="4" max="4" width="36.21875" customWidth="1"/>
   </cols>
@@ -1301,11 +1339,11 @@
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>45540</v>
       </c>
     </row>
@@ -1313,11 +1351,11 @@
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>45540</v>
       </c>
     </row>
@@ -1325,11 +1363,11 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>45540</v>
       </c>
     </row>
@@ -1337,11 +1375,11 @@
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>45540</v>
       </c>
     </row>
@@ -1349,11 +1387,11 @@
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>45540</v>
       </c>
     </row>
@@ -1361,11 +1399,11 @@
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>45540</v>
       </c>
     </row>
@@ -1373,11 +1411,11 @@
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>45540</v>
       </c>
     </row>
@@ -1385,11 +1423,11 @@
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>45540</v>
       </c>
     </row>
@@ -1397,11 +1435,11 @@
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>45540</v>
       </c>
     </row>
@@ -1409,11 +1447,11 @@
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>45540</v>
       </c>
     </row>
@@ -1421,11 +1459,11 @@
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>45540</v>
       </c>
     </row>
@@ -1433,11 +1471,11 @@
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>45540</v>
       </c>
     </row>
@@ -1445,11 +1483,11 @@
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>45540</v>
       </c>
     </row>
@@ -1457,11 +1495,11 @@
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>45540</v>
       </c>
     </row>
@@ -1469,11 +1507,11 @@
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>45540</v>
       </c>
     </row>
@@ -1481,11 +1519,11 @@
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>45540</v>
       </c>
     </row>
@@ -1493,11 +1531,11 @@
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>45540</v>
       </c>
     </row>
@@ -1505,11 +1543,11 @@
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>45540</v>
       </c>
     </row>
@@ -1517,11 +1555,11 @@
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>45570</v>
       </c>
     </row>
@@ -1529,11 +1567,11 @@
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>45570</v>
       </c>
     </row>
@@ -1541,11 +1579,11 @@
       <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>45570</v>
       </c>
     </row>
@@ -1553,11 +1591,11 @@
       <c r="A23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>45570</v>
       </c>
     </row>
@@ -1565,11 +1603,11 @@
       <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>45570</v>
       </c>
     </row>
@@ -1577,11 +1615,11 @@
       <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>45570</v>
       </c>
     </row>
@@ -1589,11 +1627,11 @@
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>45570</v>
       </c>
     </row>
@@ -1601,11 +1639,11 @@
       <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <v>45570</v>
       </c>
     </row>
@@ -1613,11 +1651,11 @@
       <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <v>45570</v>
       </c>
     </row>
@@ -1625,11 +1663,11 @@
       <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <v>45570</v>
       </c>
     </row>
@@ -1637,11 +1675,11 @@
       <c r="A30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <v>45570</v>
       </c>
     </row>
@@ -1649,11 +1687,11 @@
       <c r="A31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <v>45570</v>
       </c>
     </row>
@@ -1661,11 +1699,11 @@
       <c r="A32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="10">
         <v>45570</v>
       </c>
     </row>
@@ -1673,11 +1711,11 @@
       <c r="A33" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="10">
         <v>45570</v>
       </c>
     </row>
@@ -1685,11 +1723,11 @@
       <c r="A34" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <v>45570</v>
       </c>
     </row>
@@ -1697,7 +1735,7 @@
       <c r="A35" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>45570</v>
       </c>
     </row>
@@ -1705,7 +1743,7 @@
       <c r="A36" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>45570</v>
       </c>
     </row>
@@ -1713,7 +1751,7 @@
       <c r="A37" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>45570</v>
       </c>
     </row>
@@ -1721,7 +1759,7 @@
       <c r="A38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>45570</v>
       </c>
     </row>
@@ -1729,7 +1767,7 @@
       <c r="A39" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>45570</v>
       </c>
     </row>
@@ -1737,7 +1775,7 @@
       <c r="A40" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>45631</v>
       </c>
     </row>
@@ -1745,7 +1783,7 @@
       <c r="A41" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>45631</v>
       </c>
     </row>
@@ -1753,7 +1791,7 @@
       <c r="A42" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>45631</v>
       </c>
     </row>
@@ -1761,7 +1799,7 @@
       <c r="A43" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>45631</v>
       </c>
     </row>
@@ -1769,7 +1807,7 @@
       <c r="A44" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>45631</v>
       </c>
     </row>
@@ -1777,7 +1815,7 @@
       <c r="A45" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>45631</v>
       </c>
     </row>
@@ -1785,8 +1823,40 @@
       <c r="A46" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>45631</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="English1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="112">
   <si>
     <t>Welcom To The Course</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>SQL GROUP By</t>
+  </si>
+  <si>
+    <t>14-5-2024</t>
   </si>
 </sst>
 </file>
@@ -853,7 +856,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -970,6 +973,12 @@
       <c r="B9" s="10">
         <v>45570</v>
       </c>
+      <c r="C9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -978,6 +987,12 @@
       <c r="B10" s="10">
         <v>45631</v>
       </c>
+      <c r="C10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
@@ -985,6 +1000,12 @@
       </c>
       <c r="B11" s="16" t="s">
         <v>105</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1127,7 +1148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1309,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:B50"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1738,6 +1759,12 @@
       <c r="B35" s="10">
         <v>45570</v>
       </c>
+      <c r="C35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
@@ -1746,6 +1773,12 @@
       <c r="B36" s="10">
         <v>45570</v>
       </c>
+      <c r="C36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -1754,6 +1787,12 @@
       <c r="B37" s="10">
         <v>45570</v>
       </c>
+      <c r="C37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
@@ -1762,6 +1801,12 @@
       <c r="B38" s="10">
         <v>45570</v>
       </c>
+      <c r="C38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
@@ -1770,6 +1815,12 @@
       <c r="B39" s="10">
         <v>45570</v>
       </c>
+      <c r="C39" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
@@ -1778,6 +1829,12 @@
       <c r="B40" s="10">
         <v>45631</v>
       </c>
+      <c r="C40" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
@@ -1786,6 +1843,12 @@
       <c r="B41" s="10">
         <v>45631</v>
       </c>
+      <c r="C41" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -1794,6 +1857,12 @@
       <c r="B42" s="10">
         <v>45631</v>
       </c>
+      <c r="C42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
@@ -1802,6 +1871,12 @@
       <c r="B43" s="10">
         <v>45631</v>
       </c>
+      <c r="C43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
@@ -1809,6 +1884,12 @@
       </c>
       <c r="B44" s="10">
         <v>45631</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="118">
   <si>
     <t>Welcom To The Course</t>
   </si>
@@ -358,6 +358,24 @@
   </si>
   <si>
     <t>14-5-2024</t>
+  </si>
+  <si>
+    <t>15-5-2024</t>
+  </si>
+  <si>
+    <t>Training App: Random Values Generator</t>
+  </si>
+  <si>
+    <t>Training App - File System Command Line</t>
+  </si>
+  <si>
+    <t>Simple Math Expression Evaluator</t>
+  </si>
+  <si>
+    <t>Review lessons |</t>
+  </si>
+  <si>
+    <t>Review lessons ||</t>
   </si>
 </sst>
 </file>
@@ -856,7 +874,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1009,8 +1027,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>46</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1146,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A21" sqref="A21:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1320,6 +1341,22 @@
         <v>105</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1328,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1929,7 +1966,7 @@
         <v>108</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -1937,7 +1974,31 @@
         <v>109</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>105</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="English1" sheetId="1" r:id="rId1"/>
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
     <sheet name="C#" sheetId="3" r:id="rId3"/>
-    <sheet name="LINQ3" sheetId="4" r:id="rId4"/>
+    <sheet name="EF Core" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="130">
   <si>
     <t>Welcom To The Course</t>
   </si>
@@ -376,13 +376,49 @@
   </si>
   <si>
     <t>Review lessons ||</t>
+  </si>
+  <si>
+    <t>16-5-2024</t>
+  </si>
+  <si>
+    <t>Abstract Classes</t>
+  </si>
+  <si>
+    <t>Virtual &amp; Protected Members</t>
+  </si>
+  <si>
+    <t>Member Hiding/Shadowing</t>
+  </si>
+  <si>
+    <t>Review lessons |||</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction</t>
+  </si>
+  <si>
+    <t>17-5-2024</t>
+  </si>
+  <si>
+    <t>Add DbContext and ConnectionString</t>
+  </si>
+  <si>
+    <t>Add First Migration</t>
+  </si>
+  <si>
+    <t>Save new recorder .Add()</t>
+  </si>
+  <si>
+    <t> Migration Rollback</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entity Framework Core</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,8 +492,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,12 +525,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,37 +585,35 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2"/>
-    <xf numFmtId="14" fontId="6" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -572,21 +622,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -874,288 +936,304 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50.44140625" customWidth="1"/>
-    <col min="2" max="2" width="34.21875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" style="12" customWidth="1"/>
     <col min="3" max="3" width="45.5546875" customWidth="1"/>
     <col min="4" max="4" width="30.109375" customWidth="1"/>
     <col min="5" max="5" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="10">
-        <v>45570</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="8">
+        <v>45570</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>45631</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>112</v>
       </c>
+      <c r="C12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="B13" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" t="s">
         <v>48</v>
       </c>
+      <c r="B14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
+      <c r="A36" s="9">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1167,194 +1245,210 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="13" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="17">
         <v>45540</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="17">
         <v>45540</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="17">
         <v>45540</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="17">
         <v>45540</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="17">
         <v>45540</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="17">
         <v>45540</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="17">
         <v>45540</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="17">
         <v>45540</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="17">
         <v>45540</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="17">
         <v>45570</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="17">
         <v>45570</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="17">
         <v>45570</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="17">
         <v>45570</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="17">
         <v>45570</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="17">
         <v>45570</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="17">
         <v>45570</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="17">
         <v>45631</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1365,640 +1459,718 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="47.44140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" style="12" customWidth="1"/>
     <col min="3" max="3" width="47.44140625" customWidth="1"/>
     <col min="4" max="4" width="36.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <v>45540</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
         <v>45570</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <v>45570</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>45570</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <v>45570</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>45570</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="8">
         <v>45570</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <v>45570</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>45570</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <v>45570</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <v>45570</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <v>45570</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="8">
         <v>45570</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="8">
         <v>45570</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="8">
         <v>45570</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>45570</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="10">
-        <v>45570</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="B35" s="8">
+        <v>45570</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="10">
-        <v>45570</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="B36" s="8">
+        <v>45570</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="10">
-        <v>45570</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="B37" s="8">
+        <v>45570</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="10">
-        <v>45570</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="8">
+        <v>45570</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="10">
-        <v>45570</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="8">
+        <v>45570</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="8">
         <v>45631</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="8">
         <v>45631</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="8">
         <v>45631</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="8">
         <v>45631</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="8">
         <v>45631</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="8">
         <v>45631</v>
       </c>
+      <c r="C45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="8">
         <v>45631</v>
       </c>
+      <c r="C46" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="14" t="s">
         <v>105</v>
       </c>
+      <c r="C47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="14" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="C48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="14" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="C49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="14" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="C50" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="14" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="C51" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="14" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+      <c r="C52" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="14" t="s">
         <v>112</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2009,23 +2181,68 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39" style="12" customWidth="1"/>
+    <col min="2" max="2" width="39.77734375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="2"/>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>